--- a/缺陷.xlsx
+++ b/缺陷.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zebinwu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430B9E7C-7AE1-426C-B227-9EAAA916541A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322750EC-94E1-47CE-8974-37B7A1DB6385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,11 +143,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保存为页面功能保存为html后页面内容变动</t>
+    <t>下载管理中复制资源url后url在浏览器中为错误link</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下载管理中复制资源url后url在浏览器中为错误link</t>
+    <t>保存为页面功能保存为html后在firefox打开页面内容发生变动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,6 +260,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -268,9 +271,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,7 +579,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -609,7 +609,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1"/>
@@ -621,7 +621,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -631,7 +631,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -641,7 +641,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -651,7 +651,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -661,7 +661,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -671,7 +671,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -681,47 +681,47 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="5" t="s">
-        <v>39</v>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="5"/>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1"/>
@@ -733,7 +733,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -743,7 +743,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -753,7 +753,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -763,7 +763,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -797,7 +797,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="1"/>
@@ -809,7 +809,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -819,7 +819,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -829,7 +829,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="1"/>
@@ -841,7 +841,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -851,7 +851,7 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -861,7 +861,7 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -871,7 +871,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -881,7 +881,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -891,7 +891,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -901,7 +901,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -911,7 +911,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
